--- a/GV/PROTOTIPO.xlsx
+++ b/GV/PROTOTIPO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08F0D13-97AB-4D81-8210-E1DC65417A30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572F79C6-1080-4C40-BCE6-A58AAEA1CF13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{103B5A2C-45C9-46B3-8D77-F1CFBDA337B7}"/>
   </bookViews>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -371,6 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -705,7 +706,7 @@
   <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -748,29 +749,29 @@
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="14">
         <v>4</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <v>1</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="16">
         <v>2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="17">
         <v>3</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="18">
         <v>4</v>
       </c>
     </row>
@@ -778,99 +779,99 @@
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="18"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GV/PROTOTIPO.xlsx
+++ b/GV/PROTOTIPO.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572F79C6-1080-4C40-BCE6-A58AAEA1CF13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE19587-5060-4584-9D49-8A3C37DAAF02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{103B5A2C-45C9-46B3-8D77-F1CFBDA337B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Prototipado " sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">INDICADORES </t>
   </si>
@@ -64,6 +65,12 @@
   </si>
   <si>
     <t>Días de recolección vendidos</t>
+  </si>
+  <si>
+    <t>INDICADORES</t>
+  </si>
+  <si>
+    <t>Modelo comparativa mensual</t>
   </si>
 </sst>
 </file>
@@ -342,41 +349,11 @@
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,6 +364,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -703,182 +722,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3318F10-E2D5-4A83-ADE9-92D1D2AFB7BD}">
-  <dimension ref="B1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="19.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.8984375" customWidth="1"/>
     <col min="3" max="3" width="13.796875" customWidth="1"/>
     <col min="7" max="7" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="15"/>
     </row>
-    <row r="3" spans="2:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+    <row r="4" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="16"/>
     </row>
-    <row r="4" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D5" s="18">
         <v>2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E5" s="18">
         <v>3</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F5" s="17">
         <v>4</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="14">
+      <c r="G5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="17">
         <v>1</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I5" s="20">
         <v>2</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J5" s="21">
         <v>3</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K5" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+    <row r="6" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="13"/>
+      <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19"/>
+    <row r="7" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="13"/>
+      <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19"/>
+    <row r="8" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="19"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="13"/>
+      <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="19"/>
+    <row r="9" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="19"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="13"/>
+      <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="19"/>
+    <row r="10" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="13"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4374F1C-3466-46D7-BE2D-2093CCF15CF8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>